--- a/Testing Spreadsheet v1.0 ManageAccountPage- Chris.xlsx
+++ b/Testing Spreadsheet v1.0 ManageAccountPage- Chris.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38380" windowHeight="19820" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="341">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -721,36 +721,9 @@
     <t>Manage_TConn_40</t>
   </si>
   <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, the Manage account - reset password page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
     <t>On the Amazon Kindle Fire 7 inch mobile device, to ensure that logged users can log off from the Manage account - reset password page</t>
   </si>
   <si>
-    <t>On mobile device: iPad 4, the Manage account - reset password page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On mobile device: iPad 4, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
-    <t>On mobile device: iPhone 6, the Manage account - reset password page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On mobile device: iPhone 6, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
-    <t>On mobile device: Google Nexus 10, the Manage account - reset password page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On mobile device: Google Nexus 10, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
-    <t>On mobile device: Samaung Galaxy S4, the Manage account - reset password page should have a copyright and site version in the footer</t>
-  </si>
-  <si>
-    <t>On mobile device:  Samaung Galaxy S4, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
     <t>Requirements 4.1.10</t>
   </si>
   <si>
@@ -1280,6 +1253,12 @@
   </si>
   <si>
     <t>The result should show up the validation message to say that the password cannot be changed with less than 7 characters</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, to ensure that logged users can log off from the Manage account - reset password page</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, the Manage account - reset password page should have a copyright and site version in the footer</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1662,8 +1641,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1724,7 +1705,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1750,7 +1730,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1835,6 +1815,7 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1919,6 +1900,7 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2158,11 +2140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2091007880"/>
-        <c:axId val="2091004920"/>
+        <c:axId val="2140433720"/>
+        <c:axId val="2138923288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091007880"/>
+        <c:axId val="2140433720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091004920"/>
+        <c:crossAx val="2138923288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091004920"/>
+        <c:axId val="2138923288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091007880"/>
+        <c:crossAx val="2140433720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,10 +2583,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3086,7 +3068,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>65</v>
@@ -3095,131 +3077,79 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="28">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,34 +3180,34 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="50.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="28" customWidth="1"/>
-    <col min="5" max="6" width="18.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="13" style="28" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="28"/>
-    <col min="12" max="12" width="11.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="28" customWidth="1"/>
-    <col min="15" max="15" width="92.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="28" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" style="28"/>
-    <col min="20" max="20" width="13.83203125" style="28" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="28"/>
+    <col min="3" max="3" width="37.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="27" customWidth="1"/>
+    <col min="5" max="6" width="18.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="13" style="27" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="27"/>
+    <col min="12" max="12" width="11.5" style="27" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="92.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" style="27" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" style="27"/>
+    <col min="20" max="20" width="13.83203125" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -3322,7 +3252,7 @@
       <c r="O1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="26">
       <c r="A2" s="8" t="s">
@@ -3353,8 +3283,8 @@
         <v>64</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -3392,12 +3322,12 @@
         <v>64</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K3" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="9">
@@ -3423,7 +3353,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>76</v>
@@ -3441,12 +3371,12 @@
         <v>64</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M4" s="9">
@@ -3463,10 +3393,10 @@
     </row>
     <row r="5" spans="1:26" ht="23">
       <c r="A5" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>62</v>
@@ -3490,26 +3420,26 @@
         <v>64</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="1"/>
-      <c r="Z5" s="29"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="26">
       <c r="A6" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>89</v>
@@ -3527,8 +3457,8 @@
         <v>64</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -3536,10 +3466,10 @@
     </row>
     <row r="7" spans="1:26" ht="26">
       <c r="A7" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>62</v>
@@ -3563,8 +3493,8 @@
         <v>64</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -3572,10 +3502,10 @@
     </row>
     <row r="8" spans="1:26" ht="28">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>62</v>
@@ -3599,28 +3529,28 @@
         <v>64</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="1"/>
-      <c r="T8" s="28" t="s">
+      <c r="T8" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="26">
       <c r="A9" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>92</v>
@@ -3638,32 +3568,32 @@
         <v>64</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="1"/>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="29">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39">
       <c r="A10" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>93</v>
@@ -3681,32 +3611,32 @@
         <v>64</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="1"/>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="29">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="39">
       <c r="A11" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>94</v>
@@ -3724,12 +3654,12 @@
         <v>64</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M11" s="9">
@@ -3737,29 +3667,29 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="29">
         <f>COUNTIF(H4:H90,"*Not*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="39">
       <c r="A12" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>95</v>
@@ -3777,12 +3707,12 @@
         <v>64</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M12" s="9">
@@ -3790,19 +3720,19 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="26">
       <c r="A13" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>63</v>
@@ -3823,8 +3753,8 @@
         <v>64</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -3832,16 +3762,16 @@
     </row>
     <row r="14" spans="1:26" ht="39">
       <c r="A14" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>97</v>
@@ -3859,8 +3789,8 @@
         <v>64</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -3868,16 +3798,16 @@
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>98</v>
@@ -3895,12 +3825,12 @@
         <v>64</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M15" s="9">
@@ -3908,22 +3838,22 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>99</v>
@@ -3941,12 +3871,12 @@
         <v>64</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="9">
@@ -3954,19 +3884,19 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="26">
       <c r="A17" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>63</v>
@@ -3987,8 +3917,8 @@
         <v>64</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -3996,16 +3926,16 @@
     </row>
     <row r="18" spans="1:21" ht="39">
       <c r="A18" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>101</v>
@@ -4023,8 +3953,8 @@
         <v>64</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -4032,16 +3962,16 @@
     </row>
     <row r="19" spans="1:21" ht="39">
       <c r="A19" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>102</v>
@@ -4059,12 +3989,12 @@
         <v>64</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="9">
@@ -4072,22 +4002,22 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="39">
       <c r="A20" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>103</v>
@@ -4105,12 +4035,12 @@
         <v>64</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="K20" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M20" s="9">
@@ -4118,19 +4048,19 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="26">
       <c r="A21" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>63</v>
@@ -4151,8 +4081,8 @@
         <v>64</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -4160,16 +4090,16 @@
     </row>
     <row r="22" spans="1:21" ht="39">
       <c r="A22" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>105</v>
@@ -4187,8 +4117,8 @@
         <v>64</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -4196,16 +4126,16 @@
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>106</v>
@@ -4223,12 +4153,12 @@
         <v>64</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K23" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="9">
@@ -4236,22 +4166,22 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>107</v>
@@ -4269,12 +4199,12 @@
         <v>64</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M24" s="9">
@@ -4282,19 +4212,19 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="26">
       <c r="A25" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>63</v>
@@ -4315,8 +4245,8 @@
         <v>64</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -4324,16 +4254,16 @@
     </row>
     <row r="26" spans="1:21" ht="39">
       <c r="A26" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>109</v>
@@ -4351,28 +4281,28 @@
         <v>64</v>
       </c>
       <c r="J26" s="8"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="1"/>
-      <c r="T26" s="28" t="s">
+      <c r="T26" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>110</v>
@@ -4390,12 +4320,12 @@
         <v>64</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K27" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M27" s="9">
@@ -4403,29 +4333,29 @@
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="T27" s="28" t="s">
+      <c r="T27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="29">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>111</v>
@@ -4443,12 +4373,12 @@
         <v>64</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K28" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M28" s="9">
@@ -4456,26 +4386,26 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="T28" s="28" t="s">
+      <c r="T28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="29">
         <f>COUNTIF(L2:L8,"*Moderate*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="26">
       <c r="A29" s="8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>63</v>
@@ -4496,32 +4426,32 @@
         <v>64</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="1"/>
-      <c r="T29" s="28" t="s">
+      <c r="T29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="29">
         <f>COUNTIF(L2:L8,"*Major*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="39">
       <c r="A30" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>113</v>
@@ -4539,32 +4469,32 @@
         <v>64</v>
       </c>
       <c r="J30" s="8"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="1"/>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="30">
+      <c r="U30" s="29">
         <f>COUNTIF(L2:L8,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="39">
       <c r="A31" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>114</v>
@@ -4582,12 +4512,12 @@
         <v>64</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K31" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M31" s="9">
@@ -4595,29 +4525,29 @@
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="T31" s="28" t="s">
+      <c r="T31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="29">
         <f>COUNTIF(L2:L8,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="39">
       <c r="A32" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>115</v>
@@ -4635,12 +4565,12 @@
         <v>64</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K32" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="24" t="s">
         <v>57</v>
       </c>
       <c r="M32" s="9">
@@ -4648,19 +4578,19 @@
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="42">
       <c r="A33" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>63</v>
@@ -4681,12 +4611,12 @@
         <v>64</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K33" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="9">
@@ -4700,16 +4630,16 @@
     </row>
     <row r="34" spans="1:16" ht="42">
       <c r="A34" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>162</v>
+        <v>192</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>135</v>
@@ -4727,8 +4657,8 @@
         <v>64</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -4736,13 +4666,13 @@
     </row>
     <row r="35" spans="1:16" ht="28">
       <c r="A35" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>63</v>
@@ -4763,12 +4693,12 @@
         <v>64</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K35" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M35" s="9">
@@ -4782,16 +4712,16 @@
     </row>
     <row r="36" spans="1:16" ht="42">
       <c r="A36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>162</v>
+        <v>194</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>137</v>
@@ -4799,7 +4729,7 @@
       <c r="F36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="31">
         <v>42088</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -4809,8 +4739,8 @@
         <v>64</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -4818,13 +4748,13 @@
     </row>
     <row r="37" spans="1:16" ht="28">
       <c r="A37" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>63</v>
@@ -4835,7 +4765,7 @@
       <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="31">
         <v>42088</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -4845,12 +4775,12 @@
         <v>64</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K37" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M37" s="9">
@@ -4864,16 +4794,16 @@
     </row>
     <row r="38" spans="1:16" ht="42">
       <c r="A38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>162</v>
+        <v>196</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>139</v>
@@ -4881,7 +4811,7 @@
       <c r="F38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="31">
         <v>42088</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -4891,8 +4821,8 @@
         <v>64</v>
       </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -4900,13 +4830,13 @@
     </row>
     <row r="39" spans="1:16" ht="42">
       <c r="A39" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>63</v>
@@ -4917,7 +4847,7 @@
       <c r="F39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="31">
         <v>42088</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -4927,12 +4857,12 @@
         <v>64</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="K39" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M39" s="9">
@@ -4946,16 +4876,16 @@
     </row>
     <row r="40" spans="1:16" ht="42">
       <c r="A40" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>159</v>
@@ -4963,7 +4893,7 @@
       <c r="F40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="31">
         <v>42088</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -4973,8 +4903,8 @@
         <v>64</v>
       </c>
       <c r="J40" s="8"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -4982,13 +4912,13 @@
     </row>
     <row r="41" spans="1:16" ht="42">
       <c r="A41" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>63</v>
@@ -4999,7 +4929,7 @@
       <c r="F41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="31">
         <v>42088</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -5009,12 +4939,12 @@
         <v>64</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K41" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="9">
@@ -5028,24 +4958,24 @@
     </row>
     <row r="42" spans="1:16" ht="42">
       <c r="A42" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>162</v>
+        <v>229</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="31">
         <v>42088</v>
       </c>
       <c r="H42" s="18" t="s">
@@ -5055,8 +4985,8 @@
         <v>64</v>
       </c>
       <c r="J42" s="18"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -5068,12 +4998,12 @@
       <c r="D43" s="18"/>
       <c r="E43" s="8"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="32"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="18"/>
       <c r="I43" s="8"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -6787,7 +6717,7 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -6841,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="19" t="s">
@@ -6867,7 +6797,7 @@
         <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -6905,19 +6835,19 @@
     </row>
     <row r="5" spans="1:13" ht="28">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6930,19 +6860,19 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -6955,19 +6885,19 @@
     </row>
     <row r="7" spans="1:13" ht="28">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6980,19 +6910,19 @@
     </row>
     <row r="8" spans="1:13" ht="42">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7005,10 +6935,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7024,19 +6954,19 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -7049,19 +6979,19 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7074,19 +7004,19 @@
     </row>
     <row r="12" spans="1:13" ht="28">
       <c r="A12" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7099,19 +7029,19 @@
     </row>
     <row r="13" spans="1:13" ht="42">
       <c r="A13" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7124,19 +7054,19 @@
     </row>
     <row r="14" spans="1:13" ht="70">
       <c r="A14" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7149,19 +7079,19 @@
     </row>
     <row r="15" spans="1:13" ht="70">
       <c r="A15" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7174,19 +7104,19 @@
     </row>
     <row r="16" spans="1:13" ht="70">
       <c r="A16" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7199,19 +7129,19 @@
     </row>
     <row r="17" spans="1:13" ht="28">
       <c r="A17" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7224,19 +7154,19 @@
     </row>
     <row r="18" spans="1:13" ht="56">
       <c r="A18" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7249,19 +7179,19 @@
     </row>
     <row r="19" spans="1:13" ht="56">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7274,467 +7204,467 @@
     </row>
     <row r="20" spans="1:13" ht="70">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="42">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>340</v>
+        <v>179</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>331</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="56">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="70">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42">
       <c r="A25" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>335</v>
+        <v>183</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="56">
       <c r="A26" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="56">
       <c r="A27" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="70">
       <c r="A28" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="42">
       <c r="A29" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>337</v>
+        <v>187</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>328</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="56">
       <c r="A30" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="56">
       <c r="A31" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="70">
       <c r="A32" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+        <v>192</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+        <v>193</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+        <v>194</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+        <v>195</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+        <v>196</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+        <v>197</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+        <v>198</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+        <v>199</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+        <v>229</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7839,21 +7769,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7967,15 +7888,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7984,7 +7906,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7998,4 +7920,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ManageAccountPage- Chris.xlsx
+++ b/Testing Spreadsheet v1.0 ManageAccountPage- Chris.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="38020" windowHeight="19660" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Test Procedures" sheetId="3" r:id="rId4"/>
     <sheet name="Settings" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
@@ -200,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -415,9 +418,6 @@
     <t>Manage_TConn_1</t>
   </si>
   <si>
-    <t>To show that the manage account page has the conpany logo in the header on the page.</t>
-  </si>
-  <si>
     <t>Requirements 4.1.1</t>
   </si>
   <si>
@@ -556,39 +556,6 @@
     <t>Manage_TConn_21</t>
   </si>
   <si>
-    <t>Manage_TConn_22</t>
-  </si>
-  <si>
-    <t>Manage_TConn_23</t>
-  </si>
-  <si>
-    <t>Manage_TConn_24</t>
-  </si>
-  <si>
-    <t>Manage_TConn_25</t>
-  </si>
-  <si>
-    <t>Manage_TConn_26</t>
-  </si>
-  <si>
-    <t>Manage_TConn_27</t>
-  </si>
-  <si>
-    <t>Manage_TConn_28</t>
-  </si>
-  <si>
-    <t>Manage_TConn_29</t>
-  </si>
-  <si>
-    <t>Manage_TConn_30</t>
-  </si>
-  <si>
-    <t>Manage_TConn_31</t>
-  </si>
-  <si>
-    <t>Manage_TConn_32</t>
-  </si>
-  <si>
     <t>To show that the manage account page has a title</t>
   </si>
   <si>
@@ -622,108 +589,15 @@
     <t>To show that from the My Account - reset password page that a user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
   </si>
   <si>
-    <t>To show that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
     <t>To show that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
   </si>
   <si>
     <t>Requirements 4.1.35</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
-  </si>
-  <si>
-    <t>Manage_TConn_33</t>
-  </si>
-  <si>
-    <t>Manage_TConn_34</t>
-  </si>
-  <si>
-    <t>Manage_TConn_35</t>
-  </si>
-  <si>
-    <t>Manage_TConn_36</t>
-  </si>
-  <si>
-    <t>Manage_TConn_37</t>
-  </si>
-  <si>
-    <t>Manage_TConn_38</t>
-  </si>
-  <si>
-    <t>To check the Manage account - reset password page loads correctly on the target mobile device: Amazon Kindle Fire 7 inch.</t>
-  </si>
-  <si>
     <t>Requirements 3.2.2</t>
   </si>
   <si>
-    <t>To check the Manage account - reset password page loads correctly on the target mobile device: iPad 4.</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
-    <t>On the iPad 4 mobile device, that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
-  </si>
-  <si>
-    <t>To check the Manage account - reset password page loads correctly on the target mobile device: iPhone 6.</t>
-  </si>
-  <si>
-    <t>To check the Manage account - reset password page loads correctly on the target mobile device: Google Nexus 10.</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
-    <t>On the iPhone 6 mobile device, that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
-  </si>
-  <si>
-    <t>On the Google Nexus 10 mobile device, the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
-  </si>
-  <si>
-    <t>On the Google Nexus 10 mobile device, that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
-    <t>On the Google Nexus 10 mobile device, that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
-  </si>
-  <si>
-    <t>To check the Manage account - reset password page loads correctly on the target mobile device: Samaung Galaxy S4.</t>
-  </si>
-  <si>
-    <t>On the Samsung galaxy S4 mobile device, the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password</t>
-  </si>
-  <si>
-    <t>On the Samsung galaxy S4 mobile device, that an appropriate message is displayed when the password is changed.</t>
-  </si>
-  <si>
-    <t>On the Samsung galaxy S4 mobile device, that there is appropriate validation on size and type of password used in registration is used on the manage account page</t>
-  </si>
-  <si>
-    <t>Manage_TConn_39</t>
-  </si>
-  <si>
-    <t>Manage_TConn_40</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch mobile device, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
     <t>Requirements 4.1.10</t>
   </si>
   <si>
@@ -829,15 +703,6 @@
     <t>Manage_TCase_37</t>
   </si>
   <si>
-    <t>Manage_TCase_38</t>
-  </si>
-  <si>
-    <t>Manage_TCase_39</t>
-  </si>
-  <si>
-    <t>Manage_TCase_40</t>
-  </si>
-  <si>
     <t>Check if the manage account page is functional</t>
   </si>
   <si>
@@ -853,9 +718,6 @@
     <t>Check if each link in the navigation area works correctly</t>
   </si>
   <si>
-    <t>Check if links to the manage account page link works and users can log out from here.</t>
-  </si>
-  <si>
     <t>Check if the user can change their password correctly</t>
   </si>
   <si>
@@ -925,9 +787,6 @@
     <t>To test if validation works when changing password using the Samsung Galaxy S4</t>
   </si>
   <si>
-    <t>Manage_TCase_41</t>
-  </si>
-  <si>
     <t>To test if validation works when changing password using the Google Nexus 10</t>
   </si>
   <si>
@@ -955,27 +814,9 @@
     <t>To test if the user can change their password correctly on the Samsung Galaxy S4</t>
   </si>
   <si>
-    <t>Manage_TConn_41</t>
-  </si>
-  <si>
-    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the Amazon Fire 7 inch</t>
-  </si>
-  <si>
     <t>Logged in and on the Manage Account page</t>
   </si>
   <si>
-    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the iPad 4</t>
-  </si>
-  <si>
-    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the iPhone 6</t>
-  </si>
-  <si>
-    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the Google Nexus 10</t>
-  </si>
-  <si>
-    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the Samsung Galaxy S4</t>
-  </si>
-  <si>
     <t>Defect_Manage_1</t>
   </si>
   <si>
@@ -1027,12 +868,6 @@
     <t>Defect_Manage_17</t>
   </si>
   <si>
-    <t>Defect_Manage_18</t>
-  </si>
-  <si>
-    <t>Defect_Manage_19</t>
-  </si>
-  <si>
     <t>Manage_Tproc_4</t>
   </si>
   <si>
@@ -1117,9 +952,195 @@
     <t>Manage_Tproc_31</t>
   </si>
   <si>
+    <t>Check if the manage account page has a title</t>
+  </si>
+  <si>
+    <t>Go to the manage account page and check if title is present</t>
+  </si>
+  <si>
+    <t>Should see title at the top of the page</t>
+  </si>
+  <si>
+    <t>Exploratory</t>
+  </si>
+  <si>
+    <t>Login to the Pizza IT home page and click on the email address on the top right.</t>
+  </si>
+  <si>
+    <t>Will be directed to the manage account- reset password page.</t>
+  </si>
+  <si>
+    <t>Automated Selenium Test</t>
+  </si>
+  <si>
+    <t>Go to the manage account page and check if the common navigation area is present</t>
+  </si>
+  <si>
+    <t>Should see the common navigatoin area on the page</t>
+  </si>
+  <si>
+    <t>On the manage account page, click on each of the links separately to check that they are working</t>
+  </si>
+  <si>
+    <t>Should be directed to each page correctly</t>
+  </si>
+  <si>
+    <t>Should get the appropriate message to say that password has been changed and can use new password to login.</t>
+  </si>
+  <si>
+    <t>Expect to see the appropriate message on screen</t>
+  </si>
+  <si>
+    <t>Expect to see the validation message on screen</t>
+  </si>
+  <si>
+    <t>Expect to see website load correctly</t>
+  </si>
+  <si>
+    <t>Using an Amazon Fire 7 inch device load the website and login then click on the manage account page</t>
+  </si>
+  <si>
+    <t>Using an iPad 4 device load the website and login then click on the manage account page</t>
+  </si>
+  <si>
+    <t>Should successfully change the password</t>
+  </si>
+  <si>
+    <t>Using a Google Nexus 10 device load the website and login then click on the manage account page</t>
+  </si>
+  <si>
+    <t>Using a Google Nexus 10, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
+  </si>
+  <si>
+    <t>Using a Samsung galaxy S4 device load the website and login then click on the manage account page</t>
+  </si>
+  <si>
+    <t>Using a Samsung galaxy S4, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
+  </si>
+  <si>
+    <t>Using an iPhone 6 device, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
+  </si>
+  <si>
+    <t>Using an iPhone 6 device load the website and login then click on the manage account page</t>
+  </si>
+  <si>
+    <t>Once the password has been changed should see the appropriate message on screen</t>
+  </si>
+  <si>
+    <t>Using an iPad 4 device and try to change the password with less than 7 characters.</t>
+  </si>
+  <si>
+    <t>Using an iPhone 6 device and try to change the password with less than 7 characters.</t>
+  </si>
+  <si>
+    <t>Using an Google Nexus 10 device and try to change the password with less than 7 characters.</t>
+  </si>
+  <si>
+    <t>Using an Samsung Galaxy S4 device and try to change the password with less than 7 characters.</t>
+  </si>
+  <si>
+    <t>The result should show up the validation message to say that the password cannot be changed with less than 7 characters</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, to ensure that logged users can log off from the Manage account - reset password page</t>
+  </si>
+  <si>
+    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, the Manage account - reset password page should have a copyright and site version in the footer</t>
+  </si>
+  <si>
+    <t>To check the Manage account - reset password page loads correctly on the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4</t>
+  </si>
+  <si>
+    <t>To show that an appropriate message is displayed when the password is changed</t>
+  </si>
+  <si>
+    <t>To show that the manage account page has the conpany logo in the header on the page</t>
+  </si>
+  <si>
+    <t>To check that the user is able to reset his/her password by entering the current password, the new password and the confirmation of the new password using the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4</t>
+  </si>
+  <si>
+    <t>To check that an appropriate message is displayed when the password is changed using the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4</t>
+  </si>
+  <si>
+    <t>To check that there is appropriate validation on size and type of password used in registration is used on the manage account page, whilst using the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung Galaxy S4</t>
+  </si>
+  <si>
+    <t>To show that unregistered and registered but not logged in users cannot access the My account - reset password page</t>
+  </si>
+  <si>
+    <t>Requirements 3.2.1</t>
+  </si>
+  <si>
+    <t>To show that the login page can be accessed using the target browsers: Google Chrome, Firefox and Internet Explorer</t>
+  </si>
+  <si>
+    <t>To show that the login page is consistent in the layout with the other pages</t>
+  </si>
+  <si>
+    <t>To show that the login page has no spelling or grammatical errors</t>
+  </si>
+  <si>
+    <t>Check if link to the manage account page works and users can log out from here.</t>
+  </si>
+  <si>
+    <t>Start on the home page and login. Then click on the Manage account link as email address top right of screen and then click logout</t>
+  </si>
+  <si>
+    <t>Expect to be able to log out from the Manage account page</t>
+  </si>
+  <si>
+    <t>To test that unregistered and registered but not logged in users cannot navigate to the Manage account  -reset password page</t>
+  </si>
+  <si>
+    <t>Not be logged in</t>
+  </si>
+  <si>
+    <t>To check if  the Manage account - reset password page has a copyright and site version in the footer using the target devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4</t>
+  </si>
+  <si>
+    <t>To ensure that logged users can log off from the Manage account - reset password page using the target devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4</t>
+  </si>
+  <si>
+    <t>To check if the Manage account page can be accessed using the target browsers: Google chrome, Firefix and Internet Explorer</t>
+  </si>
+  <si>
+    <t>To check that the Manage account - reset password is consistent in terms of layout with the other pages in the system</t>
+  </si>
+  <si>
+    <t>The label for the button to be clicked is not labelled correctly. It is not consistent with the rest of the system where buttons are labelled in relation to the action they create.</t>
+  </si>
+  <si>
+    <t>To check that the Manage account - reset password contains no spelling or grammatical errors</t>
+  </si>
+  <si>
+    <t>There is an error in the validation label where it says that the password needs to be at least 7 characters. It should read 6 as per the specification</t>
+  </si>
+  <si>
+    <t>On the manage account page enter correct details for the current password and enter a new and confirmed password of at least 6 characters</t>
+  </si>
+  <si>
+    <t>Try to change the password on the manage account page using less than 6 characters</t>
+  </si>
+  <si>
+    <t>Expect to be blocked from accessing the order page and redirected to the login page</t>
+  </si>
+  <si>
     <t>Manage_Tproc_32</t>
   </si>
   <si>
+    <t>Using an Amazon Fire 7 inch device, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 6 characters</t>
+  </si>
+  <si>
+    <t>Using an Amazon Fire 7 inch device and try to change the password with less than 6 characters.</t>
+  </si>
+  <si>
+    <t>The result should show up the validation message to say that the password cannot be changed with less than 6 characters</t>
+  </si>
+  <si>
+    <t>Using an iPad 4 device, on the manage account page enter correct details for the currecnt password and enter a new and confirmed password of at least 6 characters</t>
+  </si>
+  <si>
     <t>Manage_Tproc_33</t>
   </si>
   <si>
@@ -1135,130 +1156,40 @@
     <t>Manage_Tproc_37</t>
   </si>
   <si>
-    <t>Manage_Tproc_38</t>
-  </si>
-  <si>
-    <t>Manage_Tproc_39</t>
-  </si>
-  <si>
-    <t>Manage_Tproc_40</t>
-  </si>
-  <si>
-    <t>Manage_Tproc_41</t>
-  </si>
-  <si>
-    <t>Check if the manage account page has a title</t>
-  </si>
-  <si>
-    <t>Go to the manage account page and check if title is present</t>
-  </si>
-  <si>
-    <t>Should see title at the top of the page</t>
-  </si>
-  <si>
-    <t>Exploratory</t>
-  </si>
-  <si>
-    <t>Login to the Pizza IT home page and click on the email address on the top right.</t>
-  </si>
-  <si>
-    <t>Will be directed to the manage account- reset password page.</t>
-  </si>
-  <si>
-    <t>Automated Selenium Test</t>
-  </si>
-  <si>
-    <t>Go to the manage account page and check if the common navigation area is present</t>
-  </si>
-  <si>
-    <t>Should see the common navigatoin area on the page</t>
-  </si>
-  <si>
-    <t>On the manage account page, click on each of the links separately to check that they are working</t>
-  </si>
-  <si>
-    <t>Should be directed to each page correctly</t>
-  </si>
-  <si>
-    <t>On the manage account page enter correct details for the currecnt password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Should get the appropriate message to say that password has been changed and can use new password to login.</t>
-  </si>
-  <si>
-    <t>Expect to see the appropriate message on screen</t>
-  </si>
-  <si>
-    <t>Try to change the password on the manage account page using less than 7 characters</t>
-  </si>
-  <si>
-    <t>Expect to see the validation message on screen</t>
-  </si>
-  <si>
-    <t>Expect to see website load correctly</t>
-  </si>
-  <si>
-    <t>Using an Amazon Fire 7 inch device load the website and login then click on the manage account page</t>
-  </si>
-  <si>
-    <t>Using an iPad 4 device load the website and login then click on the manage account page</t>
-  </si>
-  <si>
-    <t>Using an Amazon Fire 7 inch device, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>On the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Should successfully change the password</t>
-  </si>
-  <si>
-    <t>Using an iPad 4 device, on the manage account page enter correct details for the currecnt password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Using a Google Nexus 10 device load the website and login then click on the manage account page</t>
-  </si>
-  <si>
-    <t>Using a Google Nexus 10, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Using a Samsung galaxy S4 device load the website and login then click on the manage account page</t>
-  </si>
-  <si>
-    <t>Using a Samsung galaxy S4, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Using an iPhone 6 device, on the manage account page enter correct details for the current password and enter a new and confirmed password of at least 7 characters</t>
-  </si>
-  <si>
-    <t>Using an iPhone 6 device load the website and login then click on the manage account page</t>
-  </si>
-  <si>
-    <t>Once the password has been changed should see the appropriate message on screen</t>
-  </si>
-  <si>
-    <t>Using an Amazon Fire 7 inch device and try to change the password with less than 7 characters.</t>
-  </si>
-  <si>
-    <t>Using an iPad 4 device and try to change the password with less than 7 characters.</t>
-  </si>
-  <si>
-    <t>Using an iPhone 6 device and try to change the password with less than 7 characters.</t>
-  </si>
-  <si>
-    <t>Using an Google Nexus 10 device and try to change the password with less than 7 characters.</t>
-  </si>
-  <si>
-    <t>Using an Samsung Galaxy S4 device and try to change the password with less than 7 characters.</t>
-  </si>
-  <si>
-    <t>The result should show up the validation message to say that the password cannot be changed with less than 7 characters</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, to ensure that logged users can log off from the Manage account - reset password page</t>
-  </si>
-  <si>
-    <t>On the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 mobile devices, the Manage account - reset password page should have a copyright and site version in the footer</t>
+    <t>Using the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 to look for the copyright and version information in the footer</t>
+  </si>
+  <si>
+    <t>Expect to see the copyright and version information in the footer of the page</t>
+  </si>
+  <si>
+    <t>Using the target mobile devices: Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Samsung galaxy S4 to check that the user can log off from the Manage account page</t>
+  </si>
+  <si>
+    <t>Expect to be able to log off on all devices from the page</t>
+  </si>
+  <si>
+    <t>Using the target browsers check that the Manage account page can be accessed by clicking on the email address in the top right after successfully logging in</t>
+  </si>
+  <si>
+    <t>Expect to be able to access the Manage account page from all browsers</t>
+  </si>
+  <si>
+    <t>look at each of the pages in the system for consistency with the Manage account page</t>
+  </si>
+  <si>
+    <t>Expect to see the layout the same across the system</t>
+  </si>
+  <si>
+    <t>Look for spelling mistakes and punctuation errors or grammatical problems</t>
+  </si>
+  <si>
+    <t>Expect to see no mistakes</t>
+  </si>
+  <si>
+    <t>Ensure that user is not logged in and enter the URL of the Manage account page</t>
+  </si>
+  <si>
+    <t>Manual Intervention - copy and paste Manage account page URL into browser.</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1402,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1726,11 +1707,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1816,6 +1797,31 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1901,6 +1907,31 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1958,7 +1989,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1968,7 +1998,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1978,7 +2007,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2017,10 +2045,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -2043,7 +2071,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2085,7 +2112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Test Cases'!$T$27:$T$31</c:f>
+              <c:f>'Test Cases'!$T$28:$T$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2108,7 +2135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Cases'!$U$27:$U$31</c:f>
+              <c:f>'Test Cases'!$U$28:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2140,11 +2167,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140433720"/>
-        <c:axId val="2138923288"/>
+        <c:axId val="2112086584"/>
+        <c:axId val="2112089528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140433720"/>
+        <c:axId val="2112086584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138923288"/>
+        <c:crossAx val="2112089528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2161,7 +2188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138923288"/>
+        <c:axId val="2112089528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140433720"/>
+        <c:crossAx val="2112086584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2201,7 +2228,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>351367</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2225,14 +2252,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>325966</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2252,6 +2279,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reqs"/>
+      <sheetName val="Test Conditions"/>
+      <sheetName val="Test Cases"/>
+      <sheetName val="Test Procedures"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2583,17 +2631,18 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="104.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="104" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1">
@@ -2615,10 +2664,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2629,13 +2678,13 @@
     </row>
     <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2644,13 +2693,13 @@
     </row>
     <row r="4" spans="1:9" ht="23">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -2661,13 +2710,13 @@
     </row>
     <row r="5" spans="1:9" ht="23">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -2678,13 +2727,13 @@
     </row>
     <row r="6" spans="1:9" ht="23">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -2695,13 +2744,13 @@
     </row>
     <row r="7" spans="1:9" ht="23">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -2712,13 +2761,13 @@
     </row>
     <row r="8" spans="1:9" ht="23">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -2729,13 +2778,13 @@
     </row>
     <row r="9" spans="1:9" ht="28">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -2743,13 +2792,13 @@
     </row>
     <row r="10" spans="1:9" ht="28">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2757,13 +2806,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -2771,13 +2820,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -2785,13 +2834,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -2799,55 +2848,55 @@
     </row>
     <row r="14" spans="1:9" ht="28">
       <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28">
+      <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28">
       <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28">
+      <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -2855,301 +2904,115 @@
     </row>
     <row r="18" spans="1:4" ht="28">
       <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28">
+      <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>145</v>
+      <c r="B19" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28">
-      <c r="A26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28">
-      <c r="A28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28">
-      <c r="A30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28">
-      <c r="A32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28">
-      <c r="A33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28">
-      <c r="A34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3157,12 +3020,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D12 D14:D16 D18:D20 D22:D24 D26:D28 D30:D32</xm:sqref>
+          <xm:sqref>D2:D20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D21:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3178,10 +3047,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z161"/>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3256,16 +3125,16 @@
     </row>
     <row r="2" spans="1:26" ht="26">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>58</v>
@@ -3280,7 +3149,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="24"/>
@@ -3295,19 +3164,19 @@
     </row>
     <row r="3" spans="1:26" ht="26">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -3319,10 +3188,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>33</v>
@@ -3335,7 +3204,7 @@
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="1"/>
       <c r="T3" s="19" t="s">
@@ -3344,19 +3213,19 @@
     </row>
     <row r="4" spans="1:26" ht="26">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>27</v>
@@ -3368,10 +3237,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>33</v>
@@ -3384,7 +3253,7 @@
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Z4" s="4" t="s">
@@ -3393,19 +3262,19 @@
     </row>
     <row r="5" spans="1:26" ht="23">
       <c r="A5" s="8" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -3417,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="24"/>
@@ -3430,19 +3299,19 @@
     </row>
     <row r="6" spans="1:26" ht="26">
       <c r="A6" s="8" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>27</v>
@@ -3454,7 +3323,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="24"/>
@@ -3466,19 +3335,19 @@
     </row>
     <row r="7" spans="1:26" ht="26">
       <c r="A7" s="8" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>27</v>
@@ -3490,7 +3359,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="24"/>
@@ -3502,19 +3371,19 @@
     </row>
     <row r="8" spans="1:26" ht="28">
       <c r="A8" s="8" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>6</v>
@@ -3526,7 +3395,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="24"/>
@@ -3541,19 +3410,19 @@
     </row>
     <row r="9" spans="1:26" ht="26">
       <c r="A9" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>6</v>
@@ -3565,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="24"/>
@@ -3578,25 +3447,25 @@
         <v>53</v>
       </c>
       <c r="U9" s="29">
-        <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>22</v>
+        <f>COUNTIF(H2:H83,"*Passed*")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39">
       <c r="A10" s="8" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>6</v>
@@ -3608,7 +3477,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="24"/>
@@ -3621,25 +3490,25 @@
         <v>25</v>
       </c>
       <c r="U10" s="29">
-        <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>19</v>
+        <f>COUNTIF(H3:H83,"*Failed*")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="39">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>27</v>
@@ -3651,10 +3520,10 @@
         <v>25</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>33</v>
@@ -3667,32 +3536,32 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="P11" s="1"/>
       <c r="T11" s="27" t="s">
         <v>54</v>
       </c>
       <c r="U11" s="29">
-        <f>COUNTIF(H4:H90,"*Not*")</f>
+        <f>COUNTIF(H4:H83,"*Not*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="39">
       <c r="A12" s="8" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>6</v>
@@ -3704,10 +3573,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>33</v>
@@ -3720,25 +3589,25 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="26">
+    <row r="13" spans="1:26" ht="39">
       <c r="A13" s="8" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>6</v>
@@ -3750,31 +3619,31 @@
         <v>24</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="39">
+    <row r="14" spans="1:26" ht="26">
       <c r="A14" s="8" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>6</v>
@@ -3786,7 +3655,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="24"/>
@@ -3798,68 +3667,58 @@
     </row>
     <row r="15" spans="1:26" ht="39">
       <c r="A15" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G15" s="9">
         <v>42080</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="9">
-        <v>42080</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="O15" s="8"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="39">
       <c r="A16" s="8" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G16" s="9">
         <v>42080</v>
@@ -3868,10 +3727,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>33</v>
@@ -3884,25 +3743,25 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="26">
+    <row r="17" spans="1:21" ht="39">
       <c r="A17" s="8" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>6</v>
@@ -3911,34 +3770,44 @@
         <v>42080</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="9">
+        <v>42080</v>
+      </c>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="39">
+    <row r="18" spans="1:21" ht="26">
       <c r="A18" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>6</v>
@@ -3950,80 +3819,70 @@
         <v>24</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="39">
       <c r="A19" s="8" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G19" s="9">
         <v>42080</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="9">
-        <v>42080</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="39">
       <c r="A20" s="8" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G20" s="9">
         <v>42080</v>
@@ -4032,10 +3891,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>33</v>
@@ -4048,25 +3907,25 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="26">
+    <row r="21" spans="1:21" ht="39">
       <c r="A21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>6</v>
@@ -4075,34 +3934,44 @@
         <v>42080</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="9">
+        <v>42080</v>
+      </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="39">
+    <row r="22" spans="1:21" ht="26">
       <c r="A22" s="8" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>6</v>
@@ -4114,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="24"/>
@@ -4126,68 +3995,58 @@
     </row>
     <row r="23" spans="1:21" ht="39">
       <c r="A23" s="8" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G23" s="9">
         <v>42080</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="9">
-        <v>42080</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="O23" s="8"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="39">
       <c r="A24" s="8" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G24" s="9">
         <v>42080</v>
@@ -4196,10 +4055,10 @@
         <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>33</v>
@@ -4212,25 +4071,25 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="26">
+    <row r="25" spans="1:21" ht="39">
       <c r="A25" s="8" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>6</v>
@@ -4239,34 +4098,44 @@
         <v>42080</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="9">
+        <v>42080</v>
+      </c>
       <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="39">
+    <row r="26" spans="1:21" ht="26">
       <c r="A26" s="8" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>6</v>
@@ -4278,7 +4147,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="24"/>
@@ -4287,81 +4156,64 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="1"/>
-      <c r="T26" s="27" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="27" spans="1:21" ht="39">
       <c r="A27" s="8" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G27" s="9">
-        <v>42084</v>
+        <v>42080</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="9">
-        <v>42084</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="O27" s="8"/>
       <c r="P27" s="1"/>
       <c r="T27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U27" s="29">
-        <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="39">
       <c r="A28" s="8" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G28" s="9">
         <v>42084</v>
@@ -4370,10 +4222,10 @@
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>33</v>
@@ -4386,75 +4238,85 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="P28" s="1"/>
       <c r="T28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="29">
+        <f>COUNTIF(L2:L43,"*Minor*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="39">
+      <c r="A29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="9">
+        <v>42084</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="29">
+      <c r="M29" s="9">
+        <v>42084</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="T29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="29">
         <f>COUNTIF(L2:L8,"*Moderate*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="26">
-      <c r="A29" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="9">
-        <v>42084</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="1"/>
-      <c r="T29" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="29">
-        <f>COUNTIF(L2:L8,"*Major*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="39">
+    <row r="30" spans="1:21" ht="26">
       <c r="A30" s="8" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>6</v>
@@ -4466,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="24"/>
@@ -4476,537 +4338,433 @@
       <c r="O30" s="8"/>
       <c r="P30" s="1"/>
       <c r="T30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="29">
+        <f>COUNTIF(L2:L8,"*Major*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="39">
+      <c r="A31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="9">
+        <v>42084</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="1"/>
+      <c r="T31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="29">
+      <c r="U31" s="29">
         <f>COUNTIF(L2:L8,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="39">
-      <c r="A31" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="8" t="s">
+    <row r="32" spans="1:21" ht="39">
+      <c r="A32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>42084</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="K31" s="24" t="s">
+      <c r="I32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M32" s="9">
         <v>42084</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="T31" s="27" t="s">
+      <c r="N32" s="8"/>
+      <c r="O32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="T32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="U31" s="29">
+      <c r="U32" s="29">
         <f>COUNTIF(L2:L8,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="39">
-      <c r="A32" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="8" t="s">
+    <row r="33" spans="1:16" ht="39">
+      <c r="A33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>42084</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="9">
-        <v>42084</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="42">
-      <c r="A33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9">
-        <v>42088</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M33" s="9">
-        <v>42088</v>
+        <v>42084</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="42">
+    <row r="34" spans="1:16" ht="52">
       <c r="A34" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>285</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G34" s="9">
         <v>42088</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="9">
+        <v>42088</v>
+      </c>
       <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="28">
+    <row r="35" spans="1:16" ht="52">
       <c r="A35" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>242</v>
+        <v>150</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G35" s="9">
         <v>42088</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="9">
+        <v>63</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="39">
+      <c r="A36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="9">
         <v>42088</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="42">
-      <c r="A36" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J36" s="18"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="28">
+    <row r="37" spans="1:16" ht="39">
       <c r="A37" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="9">
+        <v>42088</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="J37" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M37" s="9">
         <v>42088</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8" t="s">
-        <v>69</v>
+      <c r="N37" s="1"/>
+      <c r="O37" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="42">
+    <row r="38" spans="1:16" ht="28">
       <c r="A38" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>207</v>
+        <v>153</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="31">
+        <v>104</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="9">
         <v>42088</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>24</v>
+      <c r="H38" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="9">
+        <v>42088</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="42">
-      <c r="A39" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="9">
-        <v>42088</v>
-      </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8" t="s">
-        <v>69</v>
-      </c>
+    <row r="39" spans="1:16">
+      <c r="E39" s="1"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="42">
-      <c r="A40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+    <row r="40" spans="1:16">
+      <c r="E40" s="1"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="42">
-      <c r="A41" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" s="9">
-        <v>42088</v>
-      </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8" t="s">
-        <v>69</v>
-      </c>
+    <row r="41" spans="1:16">
+      <c r="E41" s="1"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="42">
-      <c r="A42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="31">
-        <v>42088</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
+    <row r="42" spans="1:16">
+      <c r="E42" s="1"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="8"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="31"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16">
@@ -5017,7 +4775,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5031,7 +4789,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5045,7 +4803,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5059,7 +4817,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5073,7 +4831,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5087,7 +4845,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5101,7 +4859,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5254,7 +5012,7 @@
       <c r="H61" s="18"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -5268,7 +5026,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -5282,7 +5040,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -5296,7 +5054,7 @@
       <c r="H64" s="18"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -5310,7 +5068,7 @@
       <c r="H65" s="18"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -5324,7 +5082,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -5338,7 +5096,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -6511,7 +6269,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="18"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="18"/>
+      <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -6525,7 +6283,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="18"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="18"/>
+      <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -6537,9 +6295,9 @@
     </row>
     <row r="153" spans="5:16">
       <c r="E153" s="1"/>
-      <c r="F153" s="18"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="18"/>
+      <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -6551,9 +6309,9 @@
     </row>
     <row r="154" spans="5:16">
       <c r="E154" s="1"/>
-      <c r="F154" s="18"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="18"/>
+      <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -6563,114 +6321,16 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" spans="5:16">
-      <c r="E155" s="1"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="5:16">
-      <c r="E156" s="1"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="5:16">
-      <c r="E157" s="1"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="5:16">
-      <c r="E158" s="1"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="5:16">
-      <c r="E159" s="1"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="5:16">
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="5:16">
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H44:H159">
+  <conditionalFormatting sqref="H39:H152">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Passed ">
-      <formula>NOT(ISERROR(SEARCH("Passed ",H44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed ",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="U27" emptyCellReference="1"/>
+    <ignoredError sqref="U28" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6681,25 +6341,25 @@
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H43</xm:sqref>
+          <xm:sqref>H2:H38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F159</xm:sqref>
+          <xm:sqref>F2:F152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L50</xm:sqref>
+          <xm:sqref>L2:L43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K67</xm:sqref>
+          <xm:sqref>K2:K60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6715,10 +6375,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6759,19 +6419,19 @@
     </row>
     <row r="2" spans="1:13" ht="28">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="19" t="s">
@@ -6785,19 +6445,19 @@
     </row>
     <row r="3" spans="1:13" ht="42">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -6810,19 +6470,19 @@
     </row>
     <row r="4" spans="1:13" ht="56">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6835,19 +6495,19 @@
     </row>
     <row r="5" spans="1:13" ht="28">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6860,19 +6520,19 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -6885,19 +6545,19 @@
     </row>
     <row r="7" spans="1:13" ht="28">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6910,19 +6570,19 @@
     </row>
     <row r="8" spans="1:13" ht="42">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6933,16 +6593,22 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="42">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -6954,19 +6620,19 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -6979,19 +6645,19 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -7004,19 +6670,19 @@
     </row>
     <row r="12" spans="1:13" ht="28">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -7029,19 +6695,19 @@
     </row>
     <row r="13" spans="1:13" ht="42">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -7052,21 +6718,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="70">
+    <row r="14" spans="1:13" ht="42">
       <c r="A14" s="1" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -7079,19 +6745,19 @@
     </row>
     <row r="15" spans="1:13" ht="70">
       <c r="A15" s="1" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -7104,19 +6770,19 @@
     </row>
     <row r="16" spans="1:13" ht="70">
       <c r="A16" s="1" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7127,21 +6793,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="28">
+    <row r="17" spans="1:13" ht="70">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7152,21 +6818,21 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="56">
+    <row r="18" spans="1:13" ht="28">
       <c r="A18" s="1" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -7179,19 +6845,19 @@
     </row>
     <row r="19" spans="1:13" ht="56">
       <c r="A19" s="1" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -7202,340 +6868,368 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="70">
+    <row r="20" spans="1:13" ht="56">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="42">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="70">
       <c r="A21" s="1" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>331</v>
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="56">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="42">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>330</v>
+        <v>137</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>260</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="56">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="70">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="56">
       <c r="A24" s="1" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>335</v>
+        <v>139</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="70">
       <c r="A25" s="1" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>326</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="56">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="42">
       <c r="A26" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>327</v>
+        <v>141</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>255</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="56">
       <c r="A27" s="1" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="70">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="56">
       <c r="A28" s="1" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>336</v>
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="70">
       <c r="A29" s="1" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>328</v>
+        <v>144</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="56">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42">
       <c r="A30" s="1" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>329</v>
+        <v>145</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>306</v>
+        <v>251</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="56">
       <c r="A31" s="1" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="56">
+      <c r="A32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="70">
+      <c r="A33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="70">
+      <c r="A34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="70">
-      <c r="A32" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="70">
       <c r="A35" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="56">
       <c r="A36" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28">
       <c r="A37" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28">
       <c r="A38" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+        <v>153</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -7665,6 +7359,13 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7769,12 +7470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7888,7 +7583,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7897,16 +7592,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7922,10 +7614,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>